--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_3_bus_isolated.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_3_bus_isolated.xlsx
@@ -749,22 +749,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.078847846925941</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.961862725519719</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.05530912685228</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>26.46268431694227</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.57079613676154</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>152.8993938557652</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -808,22 +808,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526302265102183</v>
+        <v>1.058332742123209</v>
       </c>
       <c r="O3">
-        <v>5.603153463593963E-06</v>
+        <v>0.419993465162101</v>
       </c>
       <c r="P3">
-        <v>0.9526265841990182</v>
+        <v>0.8849458407133998</v>
       </c>
       <c r="Q3">
-        <v>-0.0001370825808954925</v>
+        <v>10.36827052971086</v>
       </c>
       <c r="R3">
-        <v>130.5451109655242</v>
+        <v>-114.9022326535646</v>
       </c>
       <c r="S3">
-        <v>-179.9998809971811</v>
+        <v>167.570584904511</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526302265191421</v>
+        <v>0.9909306888778323</v>
       </c>
       <c r="O4">
-        <v>5.603177018367698E-06</v>
+        <v>0.1679973860669854</v>
       </c>
       <c r="P4">
-        <v>0.9526265841900944</v>
+        <v>0.9204173017492226</v>
       </c>
       <c r="Q4">
-        <v>-0.0001370830539245049</v>
+        <v>4.409620443403971</v>
       </c>
       <c r="R4">
-        <v>130.5451450908886</v>
+        <v>-114.9022326490691</v>
       </c>
       <c r="S4">
-        <v>-179.9998809967081</v>
+        <v>175.2518098001975</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -893,55 +893,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.204231799390417</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3.204231799390417</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>36.99928183848033</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>36.99928183848033</v>
       </c>
       <c r="H5">
-        <v>1.135833375155926</v>
+        <v>1.136368270471818</v>
       </c>
       <c r="I5">
-        <v>-582.746438809211</v>
+        <v>-582.7477493791124</v>
       </c>
       <c r="J5">
-        <v>9090849404.822384</v>
+        <v>0.9743985902830108</v>
       </c>
       <c r="K5">
-        <v>-72024.50202926995</v>
+        <v>3.291772033610961</v>
       </c>
       <c r="L5">
-        <v>9090896116.753378</v>
+        <v>0.974398590256586</v>
       </c>
       <c r="M5">
-        <v>-46557.66521245242</v>
+        <v>3.291772033571912</v>
       </c>
       <c r="N5">
-        <v>0.9526302265340152</v>
+        <v>0.9526279648039772</v>
       </c>
       <c r="O5">
-        <v>5.603216276388785E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526265841752214</v>
+        <v>0.9526279648057678</v>
       </c>
       <c r="Q5">
-        <v>-0.0001370838423130766</v>
+        <v>-1.439613901192533E-11</v>
       </c>
       <c r="R5">
-        <v>130.5452019638921</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9998809959197</v>
+        <v>-179.9999999999792</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526302265221167</v>
+        <v>0.9710601884679121</v>
       </c>
       <c r="O6">
-        <v>5.603184869739314E-06</v>
+        <v>0.08399869303568067</v>
       </c>
       <c r="P6">
-        <v>0.9526265841871201</v>
+        <v>0.9357190172509378</v>
       </c>
       <c r="Q6">
-        <v>-0.0001370832115956227</v>
+        <v>2.248283018886247</v>
       </c>
       <c r="R6">
-        <v>130.5451564649962</v>
+        <v>-114.9022326412667</v>
       </c>
       <c r="S6">
-        <v>-179.9998809965504</v>
+        <v>177.6667554660107</v>
       </c>
     </row>
   </sheetData>
@@ -1116,22 +1116,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.097612874371399</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.035635625232691</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.07075516847179</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>28.13571929983946</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.691325962866</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.0929640471427</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526302263589667</v>
+        <v>1.110422696305666</v>
       </c>
       <c r="O3">
-        <v>5.602726954360584E-06</v>
+        <v>0.7889914957619021</v>
       </c>
       <c r="P3">
-        <v>0.9526265843502703</v>
+        <v>0.9451006847892721</v>
       </c>
       <c r="Q3">
-        <v>-0.0001370734840337292</v>
+        <v>20.24709464694266</v>
       </c>
       <c r="R3">
-        <v>130.5447711227623</v>
+        <v>-103.06533213792</v>
       </c>
       <c r="S3">
-        <v>-179.9998810062781</v>
+        <v>156.0082067402618</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1234,22 +1234,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526302263678907</v>
+        <v>1.079151884057173</v>
       </c>
       <c r="O4">
-        <v>5.602750509114525E-06</v>
+        <v>0.6610662947114367</v>
       </c>
       <c r="P4">
-        <v>0.9526265843413467</v>
+        <v>0.9321671592612577</v>
       </c>
       <c r="Q4">
-        <v>-0.0001370739570665982</v>
+        <v>17.32147694956701</v>
       </c>
       <c r="R4">
-        <v>130.5448052521532</v>
+        <v>-103.5752691854825</v>
       </c>
       <c r="S4">
-        <v>-179.999881005805</v>
+        <v>159.8377717076658</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1260,55 +1260,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.628672512805918</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.628672512805918</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>18.80629027380482</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>18.80629027380482</v>
       </c>
       <c r="H5">
-        <v>1.135833375155926</v>
+        <v>1.136368270471818</v>
       </c>
       <c r="I5">
-        <v>-582.746438809211</v>
+        <v>-582.7477493791124</v>
       </c>
       <c r="J5">
-        <v>9090849404.822384</v>
+        <v>0.9743985902830108</v>
       </c>
       <c r="K5">
-        <v>-72024.50202926995</v>
+        <v>3.291772033610961</v>
       </c>
       <c r="L5">
-        <v>9090896116.753378</v>
+        <v>0.974398590256586</v>
       </c>
       <c r="M5">
-        <v>-46557.66521245242</v>
+        <v>3.291772033571912</v>
       </c>
       <c r="N5">
-        <v>0.9526302263827638</v>
+        <v>1.059943178513074</v>
       </c>
       <c r="O5">
-        <v>5.602789767200039E-06</v>
+        <v>0.5758226890677851</v>
       </c>
       <c r="P5">
-        <v>0.9526265843264737</v>
+        <v>0.9259084304691395</v>
       </c>
       <c r="Q5">
-        <v>-0.0001370747454590254</v>
+        <v>15.27863230041742</v>
       </c>
       <c r="R5">
-        <v>130.5448621310151</v>
+        <v>-104.0410782188621</v>
       </c>
       <c r="S5">
-        <v>-179.9998810050166</v>
+        <v>162.4426920027739</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1352,22 +1352,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526302263708653</v>
+        <v>1.069377593873311</v>
       </c>
       <c r="O6">
-        <v>5.60275836057696E-06</v>
+        <v>0.6184394066324062</v>
       </c>
       <c r="P6">
-        <v>0.9526265843383721</v>
+        <v>0.9287977660541841</v>
       </c>
       <c r="Q6">
-        <v>-0.0001370741147415702</v>
+        <v>16.30922779350169</v>
       </c>
       <c r="R6">
-        <v>130.5448166267507</v>
+        <v>-103.7921223584376</v>
       </c>
       <c r="S6">
-        <v>-179.9998810056474</v>
+        <v>161.1358439017222</v>
       </c>
     </row>
   </sheetData>
@@ -1483,22 +1483,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.097612874371399</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.035635625232691</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.07075516847179</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>28.13571929983946</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.691325962866</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.0929640471427</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1542,22 +1542,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526302263589667</v>
+        <v>1.110422696305666</v>
       </c>
       <c r="O3">
-        <v>5.602726954360584E-06</v>
+        <v>0.7889914957619021</v>
       </c>
       <c r="P3">
-        <v>0.9526265843502703</v>
+        <v>0.9451006847892721</v>
       </c>
       <c r="Q3">
-        <v>-0.0001370734840337292</v>
+        <v>20.24709464694266</v>
       </c>
       <c r="R3">
-        <v>130.5447711227623</v>
+        <v>-103.06533213792</v>
       </c>
       <c r="S3">
-        <v>-179.9998810062781</v>
+        <v>156.0082067402618</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1601,22 +1601,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526302263678907</v>
+        <v>1.079151884057173</v>
       </c>
       <c r="O4">
-        <v>5.602750509114525E-06</v>
+        <v>0.6610662947114367</v>
       </c>
       <c r="P4">
-        <v>0.9526265843413467</v>
+        <v>0.9321671592612577</v>
       </c>
       <c r="Q4">
-        <v>-0.0001370739570665982</v>
+        <v>17.32147694956701</v>
       </c>
       <c r="R4">
-        <v>130.5448052521532</v>
+        <v>-103.5752691854825</v>
       </c>
       <c r="S4">
-        <v>-179.999881005805</v>
+        <v>159.8377717076658</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1627,55 +1627,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.628672512805918</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.628672512805918</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>18.80629027380482</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>18.80629027380482</v>
       </c>
       <c r="H5">
-        <v>1.135833375155926</v>
+        <v>1.136368270471818</v>
       </c>
       <c r="I5">
-        <v>-582.746438809211</v>
+        <v>-582.7477493791124</v>
       </c>
       <c r="J5">
-        <v>9090849404.822384</v>
+        <v>0.9743985902830108</v>
       </c>
       <c r="K5">
-        <v>-72024.50202926995</v>
+        <v>3.291772033610961</v>
       </c>
       <c r="L5">
-        <v>9090896116.753378</v>
+        <v>0.974398590256586</v>
       </c>
       <c r="M5">
-        <v>-46557.66521245242</v>
+        <v>3.291772033571912</v>
       </c>
       <c r="N5">
-        <v>0.9526302263827638</v>
+        <v>1.059943178513074</v>
       </c>
       <c r="O5">
-        <v>5.602789767200039E-06</v>
+        <v>0.5758226890677851</v>
       </c>
       <c r="P5">
-        <v>0.9526265843264737</v>
+        <v>0.9259084304691395</v>
       </c>
       <c r="Q5">
-        <v>-0.0001370747454590254</v>
+        <v>15.27863230041742</v>
       </c>
       <c r="R5">
-        <v>130.5448621310151</v>
+        <v>-104.0410782188621</v>
       </c>
       <c r="S5">
-        <v>-179.9998810050166</v>
+        <v>162.4426920027739</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1719,22 +1719,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526302263708653</v>
+        <v>1.069377593873311</v>
       </c>
       <c r="O6">
-        <v>5.60275836057696E-06</v>
+        <v>0.6184394066324062</v>
       </c>
       <c r="P6">
-        <v>0.9526265843383721</v>
+        <v>0.9287977660541841</v>
       </c>
       <c r="Q6">
-        <v>-0.0001370741147415702</v>
+        <v>16.30922779350169</v>
       </c>
       <c r="R6">
-        <v>130.5448166267507</v>
+        <v>-103.7921223584376</v>
       </c>
       <c r="S6">
-        <v>-179.9998810056474</v>
+        <v>161.1358439017222</v>
       </c>
     </row>
   </sheetData>
@@ -1850,22 +1850,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.992935592721811</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8804584269842803</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9495696022608427</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>26.27528026615309</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-93.1665453843911</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>152.425513590047</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1909,22 +1909,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660249772647326</v>
+        <v>1.02139697912874</v>
       </c>
       <c r="O3">
-        <v>1.49204844764195E-06</v>
+        <v>0.5037062977969644</v>
       </c>
       <c r="P3">
-        <v>0.8660262474134661</v>
+        <v>0.7639425556035875</v>
       </c>
       <c r="Q3">
-        <v>-6.992410075944769E-05</v>
+        <v>12.0977983898126</v>
       </c>
       <c r="R3">
-        <v>-31.64909852233475</v>
+        <v>-121.7925562883316</v>
       </c>
       <c r="S3">
-        <v>179.9998782797269</v>
+        <v>163.7271795849222</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660249772728451</v>
+        <v>0.9230804480215801</v>
       </c>
       <c r="O4">
-        <v>1.4920202292438E-06</v>
+        <v>0.2014825191277478</v>
       </c>
       <c r="P4">
-        <v>0.8660262474053538</v>
+        <v>0.8174473005965637</v>
       </c>
       <c r="Q4">
-        <v>-6.992500899485287E-05</v>
+        <v>5.322483588802231</v>
       </c>
       <c r="R4">
-        <v>-31.64852791195833</v>
+        <v>-121.7925562833989</v>
       </c>
       <c r="S4">
-        <v>179.9998782806351</v>
+        <v>173.9873388848721</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1994,55 +1994,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.606052819855865</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.606052819855865</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>30.09210594132334</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>30.09210594132334</v>
       </c>
       <c r="H5">
-        <v>2.182517945766449</v>
+        <v>2.181573834835373</v>
       </c>
       <c r="I5">
-        <v>-582.7496592148522</v>
+        <v>-582.7499614318683</v>
       </c>
       <c r="J5">
-        <v>9090956116.341946</v>
+        <v>1.77935189403521</v>
       </c>
       <c r="K5">
-        <v>-8045.936532318594</v>
+        <v>3.399730879324518</v>
       </c>
       <c r="L5">
-        <v>9090964257.588022</v>
+        <v>1.77935189398842</v>
       </c>
       <c r="M5">
-        <v>13743.12663301826</v>
+        <v>3.399730879251008</v>
       </c>
       <c r="N5">
-        <v>0.8660249772863658</v>
+        <v>0.8660254037886731</v>
       </c>
       <c r="O5">
-        <v>1.491973199102812E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660262473918331</v>
+        <v>0.8660254037890381</v>
       </c>
       <c r="Q5">
-        <v>-6.992652272384829E-05</v>
+        <v>1.923137055663145E-10</v>
       </c>
       <c r="R5">
-        <v>-31.64757683922198</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9998782821488</v>
+        <v>179.9999999997997</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660249772755494</v>
+        <v>0.8935891429579178</v>
       </c>
       <c r="O6">
-        <v>1.492010823304924E-06</v>
+        <v>0.1007412595722643</v>
       </c>
       <c r="P6">
-        <v>0.8660262474026497</v>
+        <v>0.840578874522276</v>
       </c>
       <c r="Q6">
-        <v>-6.992531173593183E-05</v>
+        <v>2.746170498569074</v>
       </c>
       <c r="R6">
-        <v>-31.64833770278489</v>
+        <v>-121.7925562748678</v>
       </c>
       <c r="S6">
-        <v>179.9998782809378</v>
+        <v>177.0804994190646</v>
       </c>
     </row>
   </sheetData>
@@ -2217,22 +2217,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.992935592721811</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8804584269842803</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9495696022608427</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>26.27528026615309</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-93.1665453843911</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>152.425513590047</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2276,22 +2276,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660249772647326</v>
+        <v>1.02139697912874</v>
       </c>
       <c r="O3">
-        <v>1.49204844764195E-06</v>
+        <v>0.5037062977969644</v>
       </c>
       <c r="P3">
-        <v>0.8660262474134661</v>
+        <v>0.7639425556035875</v>
       </c>
       <c r="Q3">
-        <v>-6.992410075944769E-05</v>
+        <v>12.0977983898126</v>
       </c>
       <c r="R3">
-        <v>-31.64909852233475</v>
+        <v>-121.7925562883316</v>
       </c>
       <c r="S3">
-        <v>179.9998782797269</v>
+        <v>163.7271795849222</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2335,22 +2335,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660249772728451</v>
+        <v>0.9230804480215801</v>
       </c>
       <c r="O4">
-        <v>1.4920202292438E-06</v>
+        <v>0.2014825191277478</v>
       </c>
       <c r="P4">
-        <v>0.8660262474053538</v>
+        <v>0.8174473005965637</v>
       </c>
       <c r="Q4">
-        <v>-6.992500899485287E-05</v>
+        <v>5.322483588802231</v>
       </c>
       <c r="R4">
-        <v>-31.64852791195833</v>
+        <v>-121.7925562833989</v>
       </c>
       <c r="S4">
-        <v>179.9998782806351</v>
+        <v>173.9873388848721</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2361,55 +2361,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.606052819855865</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.606052819855865</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>30.09210594132334</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>30.09210594132334</v>
       </c>
       <c r="H5">
-        <v>2.182517945766449</v>
+        <v>2.181573834835373</v>
       </c>
       <c r="I5">
-        <v>-582.7496592148522</v>
+        <v>-582.7499614318683</v>
       </c>
       <c r="J5">
-        <v>9090956116.341946</v>
+        <v>1.77935189403521</v>
       </c>
       <c r="K5">
-        <v>-8045.936532318594</v>
+        <v>3.399730879324518</v>
       </c>
       <c r="L5">
-        <v>9090964257.588022</v>
+        <v>1.77935189398842</v>
       </c>
       <c r="M5">
-        <v>13743.12663301826</v>
+        <v>3.399730879251008</v>
       </c>
       <c r="N5">
-        <v>0.8660249772863658</v>
+        <v>0.8660254037886731</v>
       </c>
       <c r="O5">
-        <v>1.491973199102812E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660262473918331</v>
+        <v>0.8660254037890381</v>
       </c>
       <c r="Q5">
-        <v>-6.992652272384829E-05</v>
+        <v>1.923137055663145E-10</v>
       </c>
       <c r="R5">
-        <v>-31.64757683922198</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9998782821488</v>
+        <v>179.9999999997997</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2453,22 +2453,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660249772755494</v>
+        <v>0.8935891429579178</v>
       </c>
       <c r="O6">
-        <v>1.492010823304924E-06</v>
+        <v>0.1007412595722643</v>
       </c>
       <c r="P6">
-        <v>0.8660262474026497</v>
+        <v>0.840578874522276</v>
       </c>
       <c r="Q6">
-        <v>-6.992531173593183E-05</v>
+        <v>2.746170498569074</v>
       </c>
       <c r="R6">
-        <v>-31.64833770278489</v>
+        <v>-121.7925562748678</v>
       </c>
       <c r="S6">
-        <v>179.9998782809378</v>
+        <v>177.0804994190646</v>
       </c>
     </row>
   </sheetData>
@@ -2584,22 +2584,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.000734427743673</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9413695280821804</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9703704959111742</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>28.0357480611579</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-92.10361953460277</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.0052246358092</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2643,22 +2643,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660249771272334</v>
+        <v>1.022838679026473</v>
       </c>
       <c r="O3">
-        <v>1.492426846170692E-06</v>
+        <v>0.7448705945366207</v>
       </c>
       <c r="P3">
-        <v>0.8660262475509657</v>
+        <v>0.8551123540217643</v>
       </c>
       <c r="Q3">
-        <v>-6.991500388100244E-05</v>
+        <v>20.67709037248195</v>
       </c>
       <c r="R3">
-        <v>-31.65254618123034</v>
+        <v>-104.1311854330021</v>
       </c>
       <c r="S3">
-        <v>179.99987827063</v>
+        <v>155.0163347176377</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2702,22 +2702,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660249771353458</v>
+        <v>0.9691149430901759</v>
       </c>
       <c r="O4">
-        <v>1.492398626912079E-06</v>
+        <v>0.5884255246251148</v>
       </c>
       <c r="P4">
-        <v>0.8660262475428532</v>
+        <v>0.8567021221551234</v>
       </c>
       <c r="Q4">
-        <v>-6.991591211640761E-05</v>
+        <v>17.29967291872724</v>
       </c>
       <c r="R4">
-        <v>-31.6519757828168</v>
+        <v>-101.6177951673502</v>
       </c>
       <c r="S4">
-        <v>179.9998782715383</v>
+        <v>160.3429768147775</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2728,55 +2728,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.372057420289415</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.372057420289415</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>15.84315441895434</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>15.84315441895434</v>
       </c>
       <c r="H5">
-        <v>2.182517945766449</v>
+        <v>2.181573834835373</v>
       </c>
       <c r="I5">
-        <v>-582.7496592148522</v>
+        <v>-582.7499614318683</v>
       </c>
       <c r="J5">
-        <v>9090956116.341946</v>
+        <v>1.77935189403521</v>
       </c>
       <c r="K5">
-        <v>-8045.936532318594</v>
+        <v>3.399730879324518</v>
       </c>
       <c r="L5">
-        <v>9090964257.588022</v>
+        <v>1.77935189398842</v>
       </c>
       <c r="M5">
-        <v>13743.12663301826</v>
+        <v>3.399730879251008</v>
       </c>
       <c r="N5">
-        <v>0.8660249771488665</v>
+        <v>0.9353465602742622</v>
       </c>
       <c r="O5">
-        <v>1.492351595259824E-06</v>
+        <v>0.4850955530357795</v>
       </c>
       <c r="P5">
-        <v>0.8660262475293325</v>
+        <v>0.8618501377741068</v>
       </c>
       <c r="Q5">
-        <v>-6.991742583268148E-05</v>
+        <v>14.83811452875884</v>
       </c>
       <c r="R5">
-        <v>-31.65102506327665</v>
+        <v>-99.0448597533926</v>
       </c>
       <c r="S5">
-        <v>179.999878273052</v>
+        <v>163.863451365583</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2820,22 +2820,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660249771380497</v>
+        <v>0.9520111306336774</v>
       </c>
       <c r="O6">
-        <v>1.492389220620587E-06</v>
+        <v>0.5366264965011798</v>
       </c>
       <c r="P6">
-        <v>0.8660262475401489</v>
+        <v>0.8588706570454884</v>
       </c>
       <c r="Q6">
-        <v>-6.991621485748713E-05</v>
+        <v>16.09072026904604</v>
       </c>
       <c r="R6">
-        <v>-31.65178564489345</v>
+        <v>-100.4551748721694</v>
       </c>
       <c r="S6">
-        <v>179.999878271841</v>
+        <v>162.1084886349018</v>
       </c>
     </row>
   </sheetData>
@@ -2951,22 +2951,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.000734427743673</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9413695280821804</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9703704959111742</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>28.0357480611579</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-92.10361953460277</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.0052246358092</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3010,22 +3010,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660249771272334</v>
+        <v>1.022838679026473</v>
       </c>
       <c r="O3">
-        <v>1.492426846170692E-06</v>
+        <v>0.7448705945366207</v>
       </c>
       <c r="P3">
-        <v>0.8660262475509657</v>
+        <v>0.8551123540217643</v>
       </c>
       <c r="Q3">
-        <v>-6.991500388100244E-05</v>
+        <v>20.67709037248195</v>
       </c>
       <c r="R3">
-        <v>-31.65254618123034</v>
+        <v>-104.1311854330021</v>
       </c>
       <c r="S3">
-        <v>179.99987827063</v>
+        <v>155.0163347176377</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3069,22 +3069,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660249771353458</v>
+        <v>0.9691149430901759</v>
       </c>
       <c r="O4">
-        <v>1.492398626912079E-06</v>
+        <v>0.5884255246251148</v>
       </c>
       <c r="P4">
-        <v>0.8660262475428532</v>
+        <v>0.8567021221551234</v>
       </c>
       <c r="Q4">
-        <v>-6.991591211640761E-05</v>
+        <v>17.29967291872724</v>
       </c>
       <c r="R4">
-        <v>-31.6519757828168</v>
+        <v>-101.6177951673502</v>
       </c>
       <c r="S4">
-        <v>179.9998782715383</v>
+        <v>160.3429768147775</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3095,55 +3095,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.372057420289415</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.372057420289415</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>15.84315441895434</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>15.84315441895434</v>
       </c>
       <c r="H5">
-        <v>2.182517945766449</v>
+        <v>2.181573834835373</v>
       </c>
       <c r="I5">
-        <v>-582.7496592148522</v>
+        <v>-582.7499614318683</v>
       </c>
       <c r="J5">
-        <v>9090956116.341946</v>
+        <v>1.77935189403521</v>
       </c>
       <c r="K5">
-        <v>-8045.936532318594</v>
+        <v>3.399730879324518</v>
       </c>
       <c r="L5">
-        <v>9090964257.588022</v>
+        <v>1.77935189398842</v>
       </c>
       <c r="M5">
-        <v>13743.12663301826</v>
+        <v>3.399730879251008</v>
       </c>
       <c r="N5">
-        <v>0.8660249771488665</v>
+        <v>0.9353465602742622</v>
       </c>
       <c r="O5">
-        <v>1.492351595259824E-06</v>
+        <v>0.4850955530357795</v>
       </c>
       <c r="P5">
-        <v>0.8660262475293325</v>
+        <v>0.8618501377741068</v>
       </c>
       <c r="Q5">
-        <v>-6.991742583268148E-05</v>
+        <v>14.83811452875884</v>
       </c>
       <c r="R5">
-        <v>-31.65102506327665</v>
+        <v>-99.0448597533926</v>
       </c>
       <c r="S5">
-        <v>179.999878273052</v>
+        <v>163.863451365583</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3187,22 +3187,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660249771380497</v>
+        <v>0.9520111306336774</v>
       </c>
       <c r="O6">
-        <v>1.492389220620587E-06</v>
+        <v>0.5366264965011798</v>
       </c>
       <c r="P6">
-        <v>0.8660262475401489</v>
+        <v>0.8588706570454884</v>
       </c>
       <c r="Q6">
-        <v>-6.991621485748713E-05</v>
+        <v>16.09072026904604</v>
       </c>
       <c r="R6">
-        <v>-31.65178564489345</v>
+        <v>-100.4551748721694</v>
       </c>
       <c r="S6">
-        <v>179.999878271841</v>
+        <v>162.1084886349018</v>
       </c>
     </row>
   </sheetData>
@@ -3318,22 +3318,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.101177190541264</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.100000023841807</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.101329541709169</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.95548370565198</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0307663494809</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3377,22 +3377,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5500008724305374</v>
+        <v>1.106418276617922</v>
       </c>
       <c r="O3">
-        <v>1.10000180588494</v>
+        <v>1.100000023841801</v>
       </c>
       <c r="P3">
-        <v>0.5500009334544027</v>
+        <v>1.106813013330974</v>
       </c>
       <c r="Q3">
-        <v>89.99984898172276</v>
+        <v>29.78459445202247</v>
       </c>
       <c r="R3">
-        <v>-90.00015100648173</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S3">
-        <v>89.99984900529917</v>
+        <v>150.1797227219262</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3436,22 +3436,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5500008724150809</v>
+        <v>1.107246934620004</v>
       </c>
       <c r="O4">
-        <v>1.10000180588494</v>
+        <v>1.1000000238418</v>
       </c>
       <c r="P4">
-        <v>0.5500009334698592</v>
+        <v>1.109358041309056</v>
       </c>
       <c r="Q4">
-        <v>89.99984898314187</v>
+        <v>29.65699099649234</v>
       </c>
       <c r="R4">
-        <v>-90.00015100648173</v>
+        <v>-89.99999999999802</v>
       </c>
       <c r="S4">
-        <v>89.99984900388007</v>
+        <v>150.1520769428403</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3459,7 +3459,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.06613491773673548</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7636602511627597</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3477,40 +3477,40 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.137424260377884</v>
+        <v>1.136368270470375</v>
       </c>
       <c r="I5">
-        <v>-582.74749001563</v>
+        <v>-582.7477493791132</v>
       </c>
       <c r="J5">
-        <v>9090879508.073456</v>
+        <v>0.9743985901004781</v>
       </c>
       <c r="K5">
-        <v>-12892.98879336566</v>
+        <v>3.291772033561524</v>
       </c>
       <c r="L5">
-        <v>9090908963.165979</v>
+        <v>0.9743985902685437</v>
       </c>
       <c r="M5">
-        <v>-60812.04185541719</v>
+        <v>3.291772033564655</v>
       </c>
       <c r="N5">
-        <v>0.5500008723893201</v>
+        <v>1.107802420544946</v>
       </c>
       <c r="O5">
-        <v>1.10000180588494</v>
+        <v>1.1000000238418</v>
       </c>
       <c r="P5">
-        <v>0.55000093349562</v>
+        <v>1.111054869566758</v>
       </c>
       <c r="Q5">
-        <v>89.99984898550709</v>
+        <v>29.57202835467754</v>
       </c>
       <c r="R5">
-        <v>-90.00015100648173</v>
+        <v>-89.99999999999802</v>
       </c>
       <c r="S5">
-        <v>89.99984900151487</v>
+        <v>150.1337167890721</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5500008724099287</v>
+        <v>1.107524373161697</v>
       </c>
       <c r="O6">
-        <v>1.10000180588494</v>
+        <v>1.1000000238418</v>
       </c>
       <c r="P6">
-        <v>0.5500009334750113</v>
+        <v>1.110206441187659</v>
       </c>
       <c r="Q6">
-        <v>89.99984898361492</v>
+        <v>29.61449902219653</v>
       </c>
       <c r="R6">
-        <v>-90.00015100648173</v>
+        <v>-89.99999999999802</v>
       </c>
       <c r="S6">
-        <v>89.99984900340702</v>
+        <v>150.1428898505827</v>
       </c>
     </row>
   </sheetData>
@@ -3685,22 +3685,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.101177190541264</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.100000023841807</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.101329541709169</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.95548370565198</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0307663494809</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3744,22 +3744,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5500008724305374</v>
+        <v>1.106418276617922</v>
       </c>
       <c r="O3">
-        <v>1.10000180588494</v>
+        <v>1.100000023841801</v>
       </c>
       <c r="P3">
-        <v>0.5500009334544027</v>
+        <v>1.106813013330974</v>
       </c>
       <c r="Q3">
-        <v>89.99984898172276</v>
+        <v>29.78459445202247</v>
       </c>
       <c r="R3">
-        <v>-90.00015100648173</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S3">
-        <v>89.99984900529917</v>
+        <v>150.1797227219262</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3803,22 +3803,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5500008724150809</v>
+        <v>1.107246934620004</v>
       </c>
       <c r="O4">
-        <v>1.10000180588494</v>
+        <v>1.1000000238418</v>
       </c>
       <c r="P4">
-        <v>0.5500009334698592</v>
+        <v>1.109358041309056</v>
       </c>
       <c r="Q4">
-        <v>89.99984898314187</v>
+        <v>29.65699099649234</v>
       </c>
       <c r="R4">
-        <v>-90.00015100648173</v>
+        <v>-89.99999999999802</v>
       </c>
       <c r="S4">
-        <v>89.99984900388007</v>
+        <v>150.1520769428403</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3826,7 +3826,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.06613491773673548</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7636602511627597</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3844,40 +3844,40 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.137424260377884</v>
+        <v>1.136368270470375</v>
       </c>
       <c r="I5">
-        <v>-582.74749001563</v>
+        <v>-582.7477493791132</v>
       </c>
       <c r="J5">
-        <v>9090879508.073456</v>
+        <v>0.9743985901004781</v>
       </c>
       <c r="K5">
-        <v>-12892.98879336566</v>
+        <v>3.291772033561524</v>
       </c>
       <c r="L5">
-        <v>9090908963.165979</v>
+        <v>0.9743985902685437</v>
       </c>
       <c r="M5">
-        <v>-60812.04185541719</v>
+        <v>3.291772033564655</v>
       </c>
       <c r="N5">
-        <v>0.5500008723893201</v>
+        <v>1.107802420544946</v>
       </c>
       <c r="O5">
-        <v>1.10000180588494</v>
+        <v>1.1000000238418</v>
       </c>
       <c r="P5">
-        <v>0.55000093349562</v>
+        <v>1.111054869566758</v>
       </c>
       <c r="Q5">
-        <v>89.99984898550709</v>
+        <v>29.57202835467754</v>
       </c>
       <c r="R5">
-        <v>-90.00015100648173</v>
+        <v>-89.99999999999802</v>
       </c>
       <c r="S5">
-        <v>89.99984900151487</v>
+        <v>150.1337167890721</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3921,22 +3921,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5500008724099287</v>
+        <v>1.107524373161697</v>
       </c>
       <c r="O6">
-        <v>1.10000180588494</v>
+        <v>1.1000000238418</v>
       </c>
       <c r="P6">
-        <v>0.5500009334750113</v>
+        <v>1.110206441187659</v>
       </c>
       <c r="Q6">
-        <v>89.99984898361492</v>
+        <v>29.61449902219653</v>
       </c>
       <c r="R6">
-        <v>-90.00015100648173</v>
+        <v>-89.99999999999802</v>
       </c>
       <c r="S6">
-        <v>89.99984900340702</v>
+        <v>150.1428898505827</v>
       </c>
     </row>
   </sheetData>
@@ -4052,22 +4052,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.101184063897913</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.101380183873802</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.95264587223789</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0296538219362</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4111,22 +4111,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5500008732164651</v>
+        <v>1.106470387326494</v>
       </c>
       <c r="O3">
-        <v>1.100001805884938</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P3">
-        <v>0.5500009326684728</v>
+        <v>1.10708432172489</v>
       </c>
       <c r="Q3">
-        <v>89.99984889985161</v>
+        <v>29.76988880594621</v>
       </c>
       <c r="R3">
-        <v>-90.00015100648147</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S3">
-        <v>89.99984908717084</v>
+        <v>150.1746109972121</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4170,22 +4170,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5500008732010084</v>
+        <v>1.107253270167156</v>
       </c>
       <c r="O4">
-        <v>1.100001805884938</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P4">
-        <v>0.5500009326839295</v>
+        <v>1.109680459540436</v>
       </c>
       <c r="Q4">
-        <v>89.99984890127071</v>
+        <v>29.63782096249505</v>
       </c>
       <c r="R4">
-        <v>-90.00015100648146</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S4">
-        <v>89.99984908575175</v>
+        <v>150.1426492243383</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4193,7 +4193,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.067868450772786</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7836773664630173</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4211,40 +4211,40 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.137424260377884</v>
+        <v>1.136368270470375</v>
       </c>
       <c r="I5">
-        <v>-582.74749001563</v>
+        <v>-582.7477493791132</v>
       </c>
       <c r="J5">
-        <v>9090879508.073456</v>
+        <v>0.9743985901004781</v>
       </c>
       <c r="K5">
-        <v>-12892.98879336566</v>
+        <v>3.291772033561524</v>
       </c>
       <c r="L5">
-        <v>9090908963.165979</v>
+        <v>0.9743985902685437</v>
       </c>
       <c r="M5">
-        <v>-60812.04185541719</v>
+        <v>3.291772033564655</v>
       </c>
       <c r="N5">
-        <v>0.5500008731752477</v>
+        <v>1.107778456516272</v>
       </c>
       <c r="O5">
-        <v>1.100001805884938</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P5">
-        <v>0.5500009327096902</v>
+        <v>1.111411409178547</v>
       </c>
       <c r="Q5">
-        <v>89.99984890363592</v>
+        <v>29.54987974102843</v>
       </c>
       <c r="R5">
-        <v>-90.00015100648146</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S5">
-        <v>89.99984908338655</v>
+        <v>150.1214243347922</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4288,22 +4288,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5500008731958562</v>
+        <v>1.107515537204917</v>
       </c>
       <c r="O6">
-        <v>1.100001805884938</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P6">
-        <v>0.5500009326890816</v>
+        <v>1.110545915309572</v>
       </c>
       <c r="Q6">
-        <v>89.99984890174376</v>
+        <v>29.59383992628142</v>
       </c>
       <c r="R6">
-        <v>-90.00015100648146</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S6">
-        <v>89.99984908527871</v>
+        <v>150.1320285090296</v>
       </c>
     </row>
   </sheetData>
@@ -4570,22 +4570,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.101184063897913</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.101380183873802</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.95264587223789</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0296538219362</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4629,22 +4629,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5500008732164651</v>
+        <v>1.106470387326494</v>
       </c>
       <c r="O3">
-        <v>1.100001805884938</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P3">
-        <v>0.5500009326684728</v>
+        <v>1.10708432172489</v>
       </c>
       <c r="Q3">
-        <v>89.99984889985161</v>
+        <v>29.76988880594621</v>
       </c>
       <c r="R3">
-        <v>-90.00015100648147</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S3">
-        <v>89.99984908717084</v>
+        <v>150.1746109972121</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4688,22 +4688,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5500008732010084</v>
+        <v>1.107253270167156</v>
       </c>
       <c r="O4">
-        <v>1.100001805884938</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P4">
-        <v>0.5500009326839295</v>
+        <v>1.109680459540436</v>
       </c>
       <c r="Q4">
-        <v>89.99984890127071</v>
+        <v>29.63782096249505</v>
       </c>
       <c r="R4">
-        <v>-90.00015100648146</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S4">
-        <v>89.99984908575175</v>
+        <v>150.1426492243383</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4711,7 +4711,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.067868450772786</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7836773664630173</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4729,40 +4729,40 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.137424260377884</v>
+        <v>1.136368270470375</v>
       </c>
       <c r="I5">
-        <v>-582.74749001563</v>
+        <v>-582.7477493791132</v>
       </c>
       <c r="J5">
-        <v>9090879508.073456</v>
+        <v>0.9743985901004781</v>
       </c>
       <c r="K5">
-        <v>-12892.98879336566</v>
+        <v>3.291772033561524</v>
       </c>
       <c r="L5">
-        <v>9090908963.165979</v>
+        <v>0.9743985902685437</v>
       </c>
       <c r="M5">
-        <v>-60812.04185541719</v>
+        <v>3.291772033564655</v>
       </c>
       <c r="N5">
-        <v>0.5500008731752477</v>
+        <v>1.107778456516272</v>
       </c>
       <c r="O5">
-        <v>1.100001805884938</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P5">
-        <v>0.5500009327096902</v>
+        <v>1.111411409178547</v>
       </c>
       <c r="Q5">
-        <v>89.99984890363592</v>
+        <v>29.54987974102843</v>
       </c>
       <c r="R5">
-        <v>-90.00015100648146</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S5">
-        <v>89.99984908338655</v>
+        <v>150.1214243347922</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4806,22 +4806,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5500008731958562</v>
+        <v>1.107515537204917</v>
       </c>
       <c r="O6">
-        <v>1.100001805884938</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P6">
-        <v>0.5500009326890816</v>
+        <v>1.110545915309572</v>
       </c>
       <c r="Q6">
-        <v>89.99984890174376</v>
+        <v>29.59383992628142</v>
       </c>
       <c r="R6">
-        <v>-90.00015100648146</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S6">
-        <v>89.99984908527871</v>
+        <v>150.1320285090296</v>
       </c>
     </row>
   </sheetData>
@@ -4937,22 +4937,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.001212451084921</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9999999999999976</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001376752243756</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.94908309677636</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0346047662931</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4996,22 +4996,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4999995732536941</v>
+        <v>1.00608791302776</v>
       </c>
       <c r="O3">
-        <v>0.9999992019504017</v>
+        <v>0.9999999999999341</v>
       </c>
       <c r="P3">
-        <v>0.4999996286967077</v>
+        <v>1.006504570140038</v>
       </c>
       <c r="Q3">
-        <v>90.00014603636799</v>
+        <v>29.77252066224634</v>
       </c>
       <c r="R3">
-        <v>-89.99985394412882</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S3">
-        <v>90.00014607535977</v>
+        <v>150.1860447383997</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5055,22 +5055,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4999995732396429</v>
+        <v>1.006108395979031</v>
       </c>
       <c r="O4">
-        <v>0.9999992019504017</v>
+        <v>0.9999999999999345</v>
       </c>
       <c r="P4">
-        <v>0.4999996287107588</v>
+        <v>1.009520872509644</v>
       </c>
       <c r="Q4">
-        <v>90.00014603909271</v>
+        <v>29.57392291274674</v>
       </c>
       <c r="R4">
-        <v>-89.9998539441288</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>90.00014607263509</v>
+        <v>150.0865538665644</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5078,7 +5078,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.06014283483309701</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.6944696376143151</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5096,40 +5096,40 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.181654050946236</v>
+        <v>2.181573834835883</v>
       </c>
       <c r="I5">
-        <v>-582.7496427446166</v>
+        <v>-582.7499614318682</v>
       </c>
       <c r="J5">
-        <v>9090945086.178595</v>
+        <v>1.779351893969261</v>
       </c>
       <c r="K5">
-        <v>-15484.94308032095</v>
+        <v>3.399730879240565</v>
       </c>
       <c r="L5">
-        <v>9090930576.055628</v>
+        <v>1.779351894001036</v>
       </c>
       <c r="M5">
-        <v>30863.44377659261</v>
+        <v>3.399730879243829</v>
       </c>
       <c r="N5">
-        <v>0.4999995732162243</v>
+        <v>1.006128766481361</v>
       </c>
       <c r="O5">
-        <v>0.9999992019504016</v>
+        <v>0.9999999999999346</v>
       </c>
       <c r="P5">
-        <v>0.4999996287341772</v>
+        <v>1.011533423429475</v>
       </c>
       <c r="Q5">
-        <v>90.0001460436339</v>
+        <v>29.44152993635185</v>
       </c>
       <c r="R5">
-        <v>-89.9998539441288</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>90.00014606809388</v>
+        <v>150.0205563841456</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5173,22 +5173,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999995732349592</v>
+        <v>1.006117909733529</v>
       </c>
       <c r="O6">
-        <v>0.9999992019504017</v>
+        <v>0.9999999999999346</v>
       </c>
       <c r="P6">
-        <v>0.4999996287154424</v>
+        <v>1.010526980372118</v>
       </c>
       <c r="Q6">
-        <v>90.00014604000096</v>
+        <v>29.50772575442524</v>
       </c>
       <c r="R6">
-        <v>-89.9998539441288</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S6">
-        <v>90.00014607172685</v>
+        <v>150.0535222654434</v>
       </c>
     </row>
   </sheetData>
@@ -5304,22 +5304,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.001212451084921</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9999999999999976</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001376752243756</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.94908309677636</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0346047662931</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5363,22 +5363,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4999995732536941</v>
+        <v>1.00608791302776</v>
       </c>
       <c r="O3">
-        <v>0.9999992019504017</v>
+        <v>0.9999999999999341</v>
       </c>
       <c r="P3">
-        <v>0.4999996286967077</v>
+        <v>1.006504570140038</v>
       </c>
       <c r="Q3">
-        <v>90.00014603636799</v>
+        <v>29.77252066224634</v>
       </c>
       <c r="R3">
-        <v>-89.99985394412882</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S3">
-        <v>90.00014607535977</v>
+        <v>150.1860447383997</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5422,22 +5422,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4999995732396429</v>
+        <v>1.006108395979031</v>
       </c>
       <c r="O4">
-        <v>0.9999992019504017</v>
+        <v>0.9999999999999345</v>
       </c>
       <c r="P4">
-        <v>0.4999996287107588</v>
+        <v>1.009520872509644</v>
       </c>
       <c r="Q4">
-        <v>90.00014603909271</v>
+        <v>29.57392291274674</v>
       </c>
       <c r="R4">
-        <v>-89.9998539441288</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>90.00014607263509</v>
+        <v>150.0865538665644</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5445,7 +5445,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.06014283483309701</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5454,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.6944696376143151</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5463,40 +5463,40 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.181654050946236</v>
+        <v>2.181573834835883</v>
       </c>
       <c r="I5">
-        <v>-582.7496427446166</v>
+        <v>-582.7499614318682</v>
       </c>
       <c r="J5">
-        <v>9090945086.178595</v>
+        <v>1.779351893969261</v>
       </c>
       <c r="K5">
-        <v>-15484.94308032095</v>
+        <v>3.399730879240565</v>
       </c>
       <c r="L5">
-        <v>9090930576.055628</v>
+        <v>1.779351894001036</v>
       </c>
       <c r="M5">
-        <v>30863.44377659261</v>
+        <v>3.399730879243829</v>
       </c>
       <c r="N5">
-        <v>0.4999995732162243</v>
+        <v>1.006128766481361</v>
       </c>
       <c r="O5">
-        <v>0.9999992019504016</v>
+        <v>0.9999999999999346</v>
       </c>
       <c r="P5">
-        <v>0.4999996287341772</v>
+        <v>1.011533423429475</v>
       </c>
       <c r="Q5">
-        <v>90.0001460436339</v>
+        <v>29.44152993635185</v>
       </c>
       <c r="R5">
-        <v>-89.9998539441288</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>90.00014606809388</v>
+        <v>150.0205563841456</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5540,22 +5540,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999995732349592</v>
+        <v>1.006117909733529</v>
       </c>
       <c r="O6">
-        <v>0.9999992019504017</v>
+        <v>0.9999999999999346</v>
       </c>
       <c r="P6">
-        <v>0.4999996287154424</v>
+        <v>1.010526980372118</v>
       </c>
       <c r="Q6">
-        <v>90.00014604000096</v>
+        <v>29.50772575442524</v>
       </c>
       <c r="R6">
-        <v>-89.9998539441288</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S6">
-        <v>90.00014607172685</v>
+        <v>150.0535222654434</v>
       </c>
     </row>
   </sheetData>
@@ -5671,22 +5671,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.00121903458701</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9999999999999943</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001428886969717</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.94585334533724</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0333119010892</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5730,22 +5730,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4999995739681595</v>
+        <v>1.006134771044208</v>
       </c>
       <c r="O3">
-        <v>0.9999992019504038</v>
+        <v>0.9999999999999338</v>
       </c>
       <c r="P3">
-        <v>0.4999996279822444</v>
+        <v>1.006761900677078</v>
       </c>
       <c r="Q3">
-        <v>90.00014595449515</v>
+        <v>29.7570938433069</v>
       </c>
       <c r="R3">
-        <v>-89.99985394412892</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>90.00014615723244</v>
+        <v>150.1805379578399</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5789,22 +5789,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4999995739541083</v>
+        <v>1.006060336435277</v>
       </c>
       <c r="O4">
-        <v>0.9999992019504037</v>
+        <v>0.9999999999999344</v>
       </c>
       <c r="P4">
-        <v>0.4999996279962954</v>
+        <v>1.00980760192695</v>
       </c>
       <c r="Q4">
-        <v>90.00014595721989</v>
+        <v>29.55335508730244</v>
       </c>
       <c r="R4">
-        <v>-89.9998539441289</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>90.00014615450773</v>
+        <v>150.0737973419015</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5812,7 +5812,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.06171197397383157</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7125884957202967</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5830,40 +5830,40 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.181654050946236</v>
+        <v>2.181573834835883</v>
       </c>
       <c r="I5">
-        <v>-582.7496427446166</v>
+        <v>-582.7499614318682</v>
       </c>
       <c r="J5">
-        <v>9090945086.178595</v>
+        <v>1.779351893969261</v>
       </c>
       <c r="K5">
-        <v>-15484.94308032095</v>
+        <v>3.399730879240565</v>
       </c>
       <c r="L5">
-        <v>9090930576.055628</v>
+        <v>1.779351894001036</v>
       </c>
       <c r="M5">
-        <v>30863.44377659261</v>
+        <v>3.399730879243829</v>
       </c>
       <c r="N5">
-        <v>0.4999995739306897</v>
+        <v>1.006017781502691</v>
       </c>
       <c r="O5">
-        <v>0.9999992019504037</v>
+        <v>0.9999999999999346</v>
       </c>
       <c r="P5">
-        <v>0.4999996280197139</v>
+        <v>1.011840006720932</v>
       </c>
       <c r="Q5">
-        <v>90.00014596176108</v>
+        <v>29.41751361382075</v>
       </c>
       <c r="R5">
-        <v>-89.9998539441289</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>90.00014614996653</v>
+        <v>150.0029940858924</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5907,22 +5907,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999995739494246</v>
+        <v>1.006038352091085</v>
       </c>
       <c r="O6">
-        <v>0.9999992019504037</v>
+        <v>0.9999999999999344</v>
       </c>
       <c r="P6">
-        <v>0.4999996280009791</v>
+        <v>1.010823611373161</v>
       </c>
       <c r="Q6">
-        <v>90.00014595812813</v>
+        <v>29.48543578707253</v>
       </c>
       <c r="R6">
-        <v>-89.9998539441289</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>90.00014615359949</v>
+        <v>150.0383601238869</v>
       </c>
     </row>
   </sheetData>
@@ -6038,22 +6038,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.00121903458701</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9999999999999943</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001428886969717</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.94585334533724</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0333119010892</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6097,22 +6097,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4999995739681595</v>
+        <v>1.006134771044208</v>
       </c>
       <c r="O3">
-        <v>0.9999992019504038</v>
+        <v>0.9999999999999338</v>
       </c>
       <c r="P3">
-        <v>0.4999996279822444</v>
+        <v>1.006761900677078</v>
       </c>
       <c r="Q3">
-        <v>90.00014595449515</v>
+        <v>29.7570938433069</v>
       </c>
       <c r="R3">
-        <v>-89.99985394412892</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>90.00014615723244</v>
+        <v>150.1805379578399</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6156,22 +6156,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4999995739541083</v>
+        <v>1.006060336435277</v>
       </c>
       <c r="O4">
-        <v>0.9999992019504037</v>
+        <v>0.9999999999999344</v>
       </c>
       <c r="P4">
-        <v>0.4999996279962954</v>
+        <v>1.00980760192695</v>
       </c>
       <c r="Q4">
-        <v>90.00014595721989</v>
+        <v>29.55335508730244</v>
       </c>
       <c r="R4">
-        <v>-89.9998539441289</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>90.00014615450773</v>
+        <v>150.0737973419015</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6179,7 +6179,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.06171197397383157</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7125884957202967</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6197,40 +6197,40 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.181654050946236</v>
+        <v>2.181573834835883</v>
       </c>
       <c r="I5">
-        <v>-582.7496427446166</v>
+        <v>-582.7499614318682</v>
       </c>
       <c r="J5">
-        <v>9090945086.178595</v>
+        <v>1.779351893969261</v>
       </c>
       <c r="K5">
-        <v>-15484.94308032095</v>
+        <v>3.399730879240565</v>
       </c>
       <c r="L5">
-        <v>9090930576.055628</v>
+        <v>1.779351894001036</v>
       </c>
       <c r="M5">
-        <v>30863.44377659261</v>
+        <v>3.399730879243829</v>
       </c>
       <c r="N5">
-        <v>0.4999995739306897</v>
+        <v>1.006017781502691</v>
       </c>
       <c r="O5">
-        <v>0.9999992019504037</v>
+        <v>0.9999999999999346</v>
       </c>
       <c r="P5">
-        <v>0.4999996280197139</v>
+        <v>1.011840006720932</v>
       </c>
       <c r="Q5">
-        <v>90.00014596176108</v>
+        <v>29.41751361382075</v>
       </c>
       <c r="R5">
-        <v>-89.9998539441289</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>90.00014614996653</v>
+        <v>150.0029940858924</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6274,22 +6274,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999995739494246</v>
+        <v>1.006038352091085</v>
       </c>
       <c r="O6">
-        <v>0.9999992019504037</v>
+        <v>0.9999999999999344</v>
       </c>
       <c r="P6">
-        <v>0.4999996280009791</v>
+        <v>1.010823611373161</v>
       </c>
       <c r="Q6">
-        <v>90.00014595812813</v>
+        <v>29.48543578707253</v>
       </c>
       <c r="R6">
-        <v>-89.9998539441289</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>90.00014615359949</v>
+        <v>150.0383601238869</v>
       </c>
     </row>
   </sheetData>
@@ -6405,22 +6405,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.07915259986754</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.9618627255197056</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.055645314046579</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>26.45244291900093</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.57079613676139</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>152.9064821061188</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6464,22 +6464,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>5.169544753106888E-06</v>
+        <v>1.060176999288861</v>
       </c>
       <c r="O3">
-        <v>5.603196822078119E-06</v>
+        <v>0.4199934651620706</v>
       </c>
       <c r="P3">
-        <v>2.589575601990694E-06</v>
+        <v>0.8868136037605173</v>
       </c>
       <c r="Q3">
-        <v>-76.89502962381708</v>
+        <v>10.34489357834811</v>
       </c>
       <c r="R3">
-        <v>130.5452899033253</v>
+        <v>-114.9022326535619</v>
       </c>
       <c r="S3">
-        <v>17.46250902940528</v>
+        <v>167.5909889550743</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6523,22 +6523,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5.169566401797922E-06</v>
+        <v>0.9932581561086691</v>
       </c>
       <c r="O4">
-        <v>5.603220376674486E-06</v>
+        <v>0.1679973860669547</v>
       </c>
       <c r="P4">
-        <v>2.589599387241601E-06</v>
+        <v>0.9228266687085055</v>
       </c>
       <c r="Q4">
-        <v>-76.89513894926607</v>
+        <v>4.369115452906752</v>
       </c>
       <c r="R4">
-        <v>130.5453240284536</v>
+        <v>-114.9022326490605</v>
       </c>
       <c r="S4">
-        <v>17.46251956642708</v>
+        <v>175.2317654090347</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6549,55 +6549,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.208967181225604</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3.199573403784308</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>37.05396131802555</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>36.94549131933675</v>
       </c>
       <c r="H5">
-        <v>1.135833375155926</v>
+        <v>1.136368270471818</v>
       </c>
       <c r="I5">
-        <v>-582.746438809211</v>
+        <v>-582.7477493791124</v>
       </c>
       <c r="J5">
-        <v>9090849404.822384</v>
+        <v>0.9743985902830108</v>
       </c>
       <c r="K5">
-        <v>-72024.50202926995</v>
+        <v>3.291772033610961</v>
       </c>
       <c r="L5">
-        <v>9090896116.753378</v>
+        <v>0.974398590256586</v>
       </c>
       <c r="M5">
-        <v>-46557.66521245242</v>
+        <v>3.291772033571912</v>
       </c>
       <c r="N5">
-        <v>5.16960248307163E-06</v>
+        <v>0.9553242318070581</v>
       </c>
       <c r="O5">
-        <v>5.603259634907775E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>2.589639029455044E-06</v>
+        <v>0.9553242318088877</v>
       </c>
       <c r="Q5">
-        <v>-76.89532116016686</v>
+        <v>-0.04835330359370286</v>
       </c>
       <c r="R5">
-        <v>130.5453808980589</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>17.46253711310081</v>
+        <v>179.9516466964279</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6641,22 +6641,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.169573617962172E-06</v>
+        <v>0.9735676214867356</v>
       </c>
       <c r="O6">
-        <v>5.603228228098283E-06</v>
+        <v>0.0839986930356497</v>
       </c>
       <c r="P6">
-        <v>2.589607315578336E-06</v>
+        <v>0.938279225119676</v>
       </c>
       <c r="Q6">
-        <v>-76.89517539215645</v>
+        <v>2.20340079850796</v>
       </c>
       <c r="R6">
-        <v>130.5453354017963</v>
+        <v>-114.9022326412481</v>
       </c>
       <c r="S6">
-        <v>17.46252307780626</v>
+        <v>177.6325631030514</v>
       </c>
     </row>
   </sheetData>
@@ -6772,22 +6772,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.07915259986754</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.9618627255197056</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.055645314046579</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>26.45244291900093</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.57079613676139</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>152.9064821061188</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6831,22 +6831,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>5.169544753106888E-06</v>
+        <v>1.060176999288861</v>
       </c>
       <c r="O3">
-        <v>5.603196822078119E-06</v>
+        <v>0.4199934651620706</v>
       </c>
       <c r="P3">
-        <v>2.589575601990694E-06</v>
+        <v>0.8868136037605173</v>
       </c>
       <c r="Q3">
-        <v>-76.89502962381708</v>
+        <v>10.34489357834811</v>
       </c>
       <c r="R3">
-        <v>130.5452899033253</v>
+        <v>-114.9022326535619</v>
       </c>
       <c r="S3">
-        <v>17.46250902940528</v>
+        <v>167.5909889550743</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6890,22 +6890,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5.169566401797922E-06</v>
+        <v>0.9932581561086691</v>
       </c>
       <c r="O4">
-        <v>5.603220376674486E-06</v>
+        <v>0.1679973860669547</v>
       </c>
       <c r="P4">
-        <v>2.589599387241601E-06</v>
+        <v>0.9228266687085055</v>
       </c>
       <c r="Q4">
-        <v>-76.89513894926607</v>
+        <v>4.369115452906752</v>
       </c>
       <c r="R4">
-        <v>130.5453240284536</v>
+        <v>-114.9022326490605</v>
       </c>
       <c r="S4">
-        <v>17.46251956642708</v>
+        <v>175.2317654090347</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6916,55 +6916,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.208967181225604</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3.199573403784308</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>37.05396131802555</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>36.94549131933675</v>
       </c>
       <c r="H5">
-        <v>1.135833375155926</v>
+        <v>1.136368270471818</v>
       </c>
       <c r="I5">
-        <v>-582.746438809211</v>
+        <v>-582.7477493791124</v>
       </c>
       <c r="J5">
-        <v>9090849404.822384</v>
+        <v>0.9743985902830108</v>
       </c>
       <c r="K5">
-        <v>-72024.50202926995</v>
+        <v>3.291772033610961</v>
       </c>
       <c r="L5">
-        <v>9090896116.753378</v>
+        <v>0.974398590256586</v>
       </c>
       <c r="M5">
-        <v>-46557.66521245242</v>
+        <v>3.291772033571912</v>
       </c>
       <c r="N5">
-        <v>5.16960248307163E-06</v>
+        <v>0.9553242318070581</v>
       </c>
       <c r="O5">
-        <v>5.603259634907775E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>2.589639029455044E-06</v>
+        <v>0.9553242318088877</v>
       </c>
       <c r="Q5">
-        <v>-76.89532116016686</v>
+        <v>-0.04835330359370286</v>
       </c>
       <c r="R5">
-        <v>130.5453808980589</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>17.46253711310081</v>
+        <v>179.9516466964279</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7008,22 +7008,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.169573617962172E-06</v>
+        <v>0.9735676214867356</v>
       </c>
       <c r="O6">
-        <v>5.603228228098283E-06</v>
+        <v>0.0839986930356497</v>
       </c>
       <c r="P6">
-        <v>2.589607315578336E-06</v>
+        <v>0.938279225119676</v>
       </c>
       <c r="Q6">
-        <v>-76.89517539215645</v>
+        <v>2.20340079850796</v>
       </c>
       <c r="R6">
-        <v>130.5453354017963</v>
+        <v>-114.9022326412481</v>
       </c>
       <c r="S6">
-        <v>17.46252307780626</v>
+        <v>177.6325631030514</v>
       </c>
     </row>
   </sheetData>
@@ -7139,22 +7139,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100578724287177</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.059278148952213</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.079881802672227</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>28.75582459428247</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.28334085734002</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.6346879941952</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7198,22 +7198,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>5.168007271411017E-06</v>
+        <v>1.115381804062558</v>
       </c>
       <c r="O3">
-        <v>5.602343794440117E-06</v>
+        <v>0.9019226052871618</v>
       </c>
       <c r="P3">
-        <v>2.587406822563777E-06</v>
+        <v>0.9924516089041915</v>
       </c>
       <c r="Q3">
-        <v>-76.87661203694699</v>
+        <v>23.55265412066702</v>
       </c>
       <c r="R3">
-        <v>130.5446101717344</v>
+        <v>-98.6623705019575</v>
       </c>
       <c r="S3">
-        <v>17.44815066821608</v>
+        <v>153.2993699263216</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7257,22 +7257,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5.168028916930249E-06</v>
+        <v>1.09566345778734</v>
       </c>
       <c r="O4">
-        <v>5.602367349101349E-06</v>
+        <v>0.8174068168684562</v>
       </c>
       <c r="P4">
-        <v>2.587430607575801E-06</v>
+        <v>0.978646067148238</v>
       </c>
       <c r="Q4">
-        <v>-76.8767214720653</v>
+        <v>21.58856372499832</v>
       </c>
       <c r="R4">
-        <v>130.5446443031399</v>
+        <v>-98.9774898258278</v>
       </c>
       <c r="S4">
-        <v>17.44816134242509</v>
+        <v>155.6017320732723</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7283,55 +7283,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.086330670746847</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.066491251841588</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>12.54386610369277</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>12.31478022678243</v>
       </c>
       <c r="H5">
-        <v>1.135833375155926</v>
+        <v>1.136368270471818</v>
       </c>
       <c r="I5">
-        <v>-582.746438809211</v>
+        <v>-582.7477493791124</v>
       </c>
       <c r="J5">
-        <v>9090849404.822384</v>
+        <v>0.9743985902830108</v>
       </c>
       <c r="K5">
-        <v>-72024.50202926995</v>
+        <v>3.291772033610961</v>
       </c>
       <c r="L5">
-        <v>9090896116.753378</v>
+        <v>0.974398590256586</v>
       </c>
       <c r="M5">
-        <v>-46557.66521245242</v>
+        <v>3.291772033571912</v>
       </c>
       <c r="N5">
-        <v>5.168064992888559E-06</v>
+        <v>1.083254576431063</v>
       </c>
       <c r="O5">
-        <v>5.60240660722699E-06</v>
+        <v>0.7610792363885615</v>
       </c>
       <c r="P5">
-        <v>2.587470249650465E-06</v>
+        <v>0.9703405930370638</v>
       </c>
       <c r="Q5">
-        <v>-76.87690386713176</v>
+        <v>20.24047571367769</v>
       </c>
       <c r="R5">
-        <v>130.5447011856693</v>
+        <v>-99.22644568574435</v>
       </c>
       <c r="S5">
-        <v>17.44817912336397</v>
+        <v>157.1713897874239</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7375,22 +7375,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.168036132099618E-06</v>
+        <v>1.089383630700911</v>
       </c>
       <c r="O6">
-        <v>5.602375200699744E-06</v>
+        <v>0.7892411663991581</v>
       </c>
       <c r="P6">
-        <v>2.58743853589523E-06</v>
+        <v>0.9744019105908748</v>
       </c>
       <c r="Q6">
-        <v>-76.87675795167334</v>
+        <v>20.91835855952058</v>
       </c>
       <c r="R6">
-        <v>130.5446556783868</v>
+        <v>-99.09752580836491</v>
       </c>
       <c r="S6">
-        <v>17.44816489760982</v>
+        <v>156.3832162263624</v>
       </c>
     </row>
   </sheetData>
@@ -7506,22 +7506,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100578724287177</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.059278148952213</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.079881802672227</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>28.75582459428247</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.28334085734002</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.6346879941952</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7565,22 +7565,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>5.168007271411017E-06</v>
+        <v>1.115381804062558</v>
       </c>
       <c r="O3">
-        <v>5.602343794440117E-06</v>
+        <v>0.9019226052871618</v>
       </c>
       <c r="P3">
-        <v>2.587406822563777E-06</v>
+        <v>0.9924516089041915</v>
       </c>
       <c r="Q3">
-        <v>-76.87661203694699</v>
+        <v>23.55265412066702</v>
       </c>
       <c r="R3">
-        <v>130.5446101717344</v>
+        <v>-98.6623705019575</v>
       </c>
       <c r="S3">
-        <v>17.44815066821608</v>
+        <v>153.2993699263216</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7624,22 +7624,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5.168028916930249E-06</v>
+        <v>1.09566345778734</v>
       </c>
       <c r="O4">
-        <v>5.602367349101349E-06</v>
+        <v>0.8174068168684562</v>
       </c>
       <c r="P4">
-        <v>2.587430607575801E-06</v>
+        <v>0.978646067148238</v>
       </c>
       <c r="Q4">
-        <v>-76.8767214720653</v>
+        <v>21.58856372499832</v>
       </c>
       <c r="R4">
-        <v>130.5446443031399</v>
+        <v>-98.9774898258278</v>
       </c>
       <c r="S4">
-        <v>17.44816134242509</v>
+        <v>155.6017320732723</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7650,55 +7650,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.086330670746847</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.066491251841588</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>12.54386610369277</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>12.31478022678243</v>
       </c>
       <c r="H5">
-        <v>1.135833375155926</v>
+        <v>1.136368270471818</v>
       </c>
       <c r="I5">
-        <v>-582.746438809211</v>
+        <v>-582.7477493791124</v>
       </c>
       <c r="J5">
-        <v>9090849404.822384</v>
+        <v>0.9743985902830108</v>
       </c>
       <c r="K5">
-        <v>-72024.50202926995</v>
+        <v>3.291772033610961</v>
       </c>
       <c r="L5">
-        <v>9090896116.753378</v>
+        <v>0.974398590256586</v>
       </c>
       <c r="M5">
-        <v>-46557.66521245242</v>
+        <v>3.291772033571912</v>
       </c>
       <c r="N5">
-        <v>5.168064992888559E-06</v>
+        <v>1.083254576431063</v>
       </c>
       <c r="O5">
-        <v>5.60240660722699E-06</v>
+        <v>0.7610792363885615</v>
       </c>
       <c r="P5">
-        <v>2.587470249650465E-06</v>
+        <v>0.9703405930370638</v>
       </c>
       <c r="Q5">
-        <v>-76.87690386713176</v>
+        <v>20.24047571367769</v>
       </c>
       <c r="R5">
-        <v>130.5447011856693</v>
+        <v>-99.22644568574435</v>
       </c>
       <c r="S5">
-        <v>17.44817912336397</v>
+        <v>157.1713897874239</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7742,22 +7742,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.168036132099618E-06</v>
+        <v>1.089383630700911</v>
       </c>
       <c r="O6">
-        <v>5.602375200699744E-06</v>
+        <v>0.7892411663991581</v>
       </c>
       <c r="P6">
-        <v>2.58743853589523E-06</v>
+        <v>0.9744019105908748</v>
       </c>
       <c r="Q6">
-        <v>-76.87675795167334</v>
+        <v>20.91835855952058</v>
       </c>
       <c r="R6">
-        <v>130.5446556783868</v>
+        <v>-99.09752580836491</v>
       </c>
       <c r="S6">
-        <v>17.44816489760982</v>
+        <v>156.3832162263624</v>
       </c>
     </row>
   </sheetData>
@@ -7873,22 +7873,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.993250602318275</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8804584269842749</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9499161465044823</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>26.26379853948423</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-93.16654538439049</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>152.4337727651922</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7932,22 +7932,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.119261938267915E-06</v>
+        <v>1.023137349279225</v>
       </c>
       <c r="O3">
-        <v>1.492046724932998E-06</v>
+        <v>0.5037062977968987</v>
       </c>
       <c r="P3">
-        <v>1.901688543041036E-06</v>
+        <v>0.76569755359284</v>
       </c>
       <c r="Q3">
-        <v>-119.2902019897248</v>
+        <v>12.07144155088906</v>
       </c>
       <c r="R3">
-        <v>-31.64907563109625</v>
+        <v>-121.7925562883284</v>
       </c>
       <c r="S3">
-        <v>112.3312201088545</v>
+        <v>163.7580685225422</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7991,22 +7991,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.119293829848119E-06</v>
+        <v>0.925229301522683</v>
       </c>
       <c r="O4">
-        <v>1.492018506731767E-06</v>
+        <v>0.201482519127681</v>
       </c>
       <c r="P4">
-        <v>1.901676725523125E-06</v>
+        <v>0.8197593913621255</v>
       </c>
       <c r="Q4">
-        <v>-119.2902056643404</v>
+        <v>5.257733857296622</v>
       </c>
       <c r="R4">
-        <v>-31.64850501510759</v>
+        <v>-121.7925562833838</v>
       </c>
       <c r="S4">
-        <v>112.3303276555859</v>
+        <v>173.9451954828326</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8017,55 +8017,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.613066941433041</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.59910523727783</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>30.17309804093757</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>30.01188216789043</v>
       </c>
       <c r="H5">
-        <v>2.182517945766449</v>
+        <v>2.181573834835373</v>
       </c>
       <c r="I5">
-        <v>-582.7496592148522</v>
+        <v>-582.7499614318683</v>
       </c>
       <c r="J5">
-        <v>9090956116.341946</v>
+        <v>1.77935189403521</v>
       </c>
       <c r="K5">
-        <v>-8045.936532318594</v>
+        <v>3.399730879324518</v>
       </c>
       <c r="L5">
-        <v>9090964257.588022</v>
+        <v>1.77935189398842</v>
       </c>
       <c r="M5">
-        <v>13743.12663301826</v>
+        <v>3.399730879251008</v>
       </c>
       <c r="N5">
-        <v>1.119346982330615E-06</v>
+        <v>0.8685529193580886</v>
       </c>
       <c r="O5">
-        <v>1.491971476640657E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.90165703030098E-06</v>
+        <v>0.8685529193585572</v>
       </c>
       <c r="Q5">
-        <v>-119.2902118076236</v>
+        <v>-0.08835421843625132</v>
       </c>
       <c r="R5">
-        <v>-31.64755394538826</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>112.3288402007039</v>
+        <v>179.9116457811737</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8109,22 +8109,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.119304460355034E-06</v>
+        <v>0.8959162018380559</v>
       </c>
       <c r="O6">
-        <v>1.492009100843086E-06</v>
+        <v>0.1007412595721972</v>
       </c>
       <c r="P6">
-        <v>1.901672786266486E-06</v>
+        <v>0.8430131235090967</v>
       </c>
       <c r="Q6">
-        <v>-119.2902069047834</v>
+        <v>2.669208644753179</v>
       </c>
       <c r="R6">
-        <v>-31.64831480153743</v>
+        <v>-121.792556274833</v>
       </c>
       <c r="S6">
-        <v>112.3300301682228</v>
+        <v>177.0147160701429</v>
       </c>
     </row>
   </sheetData>
@@ -8391,22 +8391,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.993250602318275</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8804584269842749</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9499161465044823</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>26.26379853948423</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-93.16654538439049</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>152.4337727651922</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8450,22 +8450,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.119261938267915E-06</v>
+        <v>1.023137349279225</v>
       </c>
       <c r="O3">
-        <v>1.492046724932998E-06</v>
+        <v>0.5037062977968987</v>
       </c>
       <c r="P3">
-        <v>1.901688543041036E-06</v>
+        <v>0.76569755359284</v>
       </c>
       <c r="Q3">
-        <v>-119.2902019897248</v>
+        <v>12.07144155088906</v>
       </c>
       <c r="R3">
-        <v>-31.64907563109625</v>
+        <v>-121.7925562883284</v>
       </c>
       <c r="S3">
-        <v>112.3312201088545</v>
+        <v>163.7580685225422</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8509,22 +8509,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.119293829848119E-06</v>
+        <v>0.925229301522683</v>
       </c>
       <c r="O4">
-        <v>1.492018506731767E-06</v>
+        <v>0.201482519127681</v>
       </c>
       <c r="P4">
-        <v>1.901676725523125E-06</v>
+        <v>0.8197593913621255</v>
       </c>
       <c r="Q4">
-        <v>-119.2902056643404</v>
+        <v>5.257733857296622</v>
       </c>
       <c r="R4">
-        <v>-31.64850501510759</v>
+        <v>-121.7925562833838</v>
       </c>
       <c r="S4">
-        <v>112.3303276555859</v>
+        <v>173.9451954828326</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8535,55 +8535,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.613066941433041</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.59910523727783</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>30.17309804093757</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>30.01188216789043</v>
       </c>
       <c r="H5">
-        <v>2.182517945766449</v>
+        <v>2.181573834835373</v>
       </c>
       <c r="I5">
-        <v>-582.7496592148522</v>
+        <v>-582.7499614318683</v>
       </c>
       <c r="J5">
-        <v>9090956116.341946</v>
+        <v>1.77935189403521</v>
       </c>
       <c r="K5">
-        <v>-8045.936532318594</v>
+        <v>3.399730879324518</v>
       </c>
       <c r="L5">
-        <v>9090964257.588022</v>
+        <v>1.77935189398842</v>
       </c>
       <c r="M5">
-        <v>13743.12663301826</v>
+        <v>3.399730879251008</v>
       </c>
       <c r="N5">
-        <v>1.119346982330615E-06</v>
+        <v>0.8685529193580886</v>
       </c>
       <c r="O5">
-        <v>1.491971476640657E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.90165703030098E-06</v>
+        <v>0.8685529193585572</v>
       </c>
       <c r="Q5">
-        <v>-119.2902118076236</v>
+        <v>-0.08835421843625132</v>
       </c>
       <c r="R5">
-        <v>-31.64755394538826</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>112.3288402007039</v>
+        <v>179.9116457811737</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8627,22 +8627,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.119304460355034E-06</v>
+        <v>0.8959162018380559</v>
       </c>
       <c r="O6">
-        <v>1.492009100843086E-06</v>
+        <v>0.1007412595721972</v>
       </c>
       <c r="P6">
-        <v>1.901672786266486E-06</v>
+        <v>0.8430131235090967</v>
       </c>
       <c r="Q6">
-        <v>-119.2902069047834</v>
+        <v>2.669208644753179</v>
       </c>
       <c r="R6">
-        <v>-31.64831480153743</v>
+        <v>-121.792556274833</v>
       </c>
       <c r="S6">
-        <v>112.3300301682228</v>
+        <v>177.0147160701429</v>
       </c>
     </row>
   </sheetData>
@@ -8758,22 +8758,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.001865783402579</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9615729355902369</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.979732008477374</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>28.66448930653601</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.51132863889001</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.6194938661163</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.117211315421897E-06</v>
+        <v>1.019784392324742</v>
       </c>
       <c r="O3">
-        <v>1.492803525952441E-06</v>
+        <v>0.8296997009408589</v>
       </c>
       <c r="P3">
-        <v>1.901269646014305E-06</v>
+        <v>0.9003105773241511</v>
       </c>
       <c r="Q3">
-        <v>-119.2813401156807</v>
+        <v>23.67071892847583</v>
       </c>
       <c r="R3">
-        <v>-31.6559691026658</v>
+        <v>-99.17392234672654</v>
       </c>
       <c r="S3">
-        <v>112.3919312388904</v>
+        <v>152.9334338135898</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8876,22 +8876,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.117243207046591E-06</v>
+        <v>0.9832237106178009</v>
       </c>
       <c r="O4">
-        <v>1.492775305969935E-06</v>
+        <v>0.7246674127320802</v>
       </c>
       <c r="P4">
-        <v>1.901257797222614E-06</v>
+        <v>0.8964711607624493</v>
       </c>
       <c r="Q4">
-        <v>-119.2813440483925</v>
+        <v>21.3745301536399</v>
       </c>
       <c r="R4">
-        <v>-31.65539890901776</v>
+        <v>-97.50360857594937</v>
       </c>
       <c r="S4">
-        <v>112.3910389644771</v>
+        <v>156.3154453260067</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8902,55 +8902,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.9361901231321267</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.916798630115695</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>10.81019239206005</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>10.58627871779953</v>
       </c>
       <c r="H5">
-        <v>2.182517945766449</v>
+        <v>2.181573834835373</v>
       </c>
       <c r="I5">
-        <v>-582.7496592148522</v>
+        <v>-582.7499614318683</v>
       </c>
       <c r="J5">
-        <v>9090956116.341946</v>
+        <v>1.77935189403521</v>
       </c>
       <c r="K5">
-        <v>-8045.936532318594</v>
+        <v>3.399730879324518</v>
       </c>
       <c r="L5">
-        <v>9090964257.588022</v>
+        <v>1.77935189398842</v>
       </c>
       <c r="M5">
-        <v>13743.12663301826</v>
+        <v>3.399730879251008</v>
       </c>
       <c r="N5">
-        <v>1.117296359534714E-06</v>
+        <v>0.9597824000225575</v>
       </c>
       <c r="O5">
-        <v>1.49272827290549E-06</v>
+        <v>0.6550793552707591</v>
       </c>
       <c r="P5">
-        <v>1.901238049830277E-06</v>
+        <v>0.89565703670291</v>
       </c>
       <c r="Q5">
-        <v>-119.2813506200366</v>
+        <v>19.74825522555095</v>
       </c>
       <c r="R5">
-        <v>-31.65444854142759</v>
+        <v>-96.09329345651989</v>
       </c>
       <c r="S5">
-        <v>112.3895518109924</v>
+        <v>158.581108761604</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8994,22 +8994,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.117253837549666E-06</v>
+        <v>0.9714052356153338</v>
       </c>
       <c r="O6">
-        <v>1.492765899485333E-06</v>
+        <v>0.6898212699572401</v>
       </c>
       <c r="P6">
-        <v>1.901253847505873E-06</v>
+        <v>0.8958889607374945</v>
       </c>
       <c r="Q6">
-        <v>-119.2813453754281</v>
+        <v>20.57120340899195</v>
       </c>
       <c r="R6">
-        <v>-31.6552088353213</v>
+        <v>-96.83401769910354</v>
       </c>
       <c r="S6">
-        <v>112.3907415375199</v>
+        <v>157.4477623563691</v>
       </c>
     </row>
   </sheetData>
@@ -9125,22 +9125,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.001865783402579</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9615729355902369</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.979732008477374</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>28.66448930653601</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.51132863889001</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.6194938661163</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -9184,22 +9184,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.117211315421897E-06</v>
+        <v>1.019784392324742</v>
       </c>
       <c r="O3">
-        <v>1.492803525952441E-06</v>
+        <v>0.8296997009408589</v>
       </c>
       <c r="P3">
-        <v>1.901269646014305E-06</v>
+        <v>0.9003105773241511</v>
       </c>
       <c r="Q3">
-        <v>-119.2813401156807</v>
+        <v>23.67071892847583</v>
       </c>
       <c r="R3">
-        <v>-31.6559691026658</v>
+        <v>-99.17392234672654</v>
       </c>
       <c r="S3">
-        <v>112.3919312388904</v>
+        <v>152.9334338135898</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -9243,22 +9243,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.117243207046591E-06</v>
+        <v>0.9832237106178009</v>
       </c>
       <c r="O4">
-        <v>1.492775305969935E-06</v>
+        <v>0.7246674127320802</v>
       </c>
       <c r="P4">
-        <v>1.901257797222614E-06</v>
+        <v>0.8964711607624493</v>
       </c>
       <c r="Q4">
-        <v>-119.2813440483925</v>
+        <v>21.3745301536399</v>
       </c>
       <c r="R4">
-        <v>-31.65539890901776</v>
+        <v>-97.50360857594937</v>
       </c>
       <c r="S4">
-        <v>112.3910389644771</v>
+        <v>156.3154453260067</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -9269,55 +9269,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.9361901231321267</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.916798630115695</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>10.81019239206005</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>10.58627871779953</v>
       </c>
       <c r="H5">
-        <v>2.182517945766449</v>
+        <v>2.181573834835373</v>
       </c>
       <c r="I5">
-        <v>-582.7496592148522</v>
+        <v>-582.7499614318683</v>
       </c>
       <c r="J5">
-        <v>9090956116.341946</v>
+        <v>1.77935189403521</v>
       </c>
       <c r="K5">
-        <v>-8045.936532318594</v>
+        <v>3.399730879324518</v>
       </c>
       <c r="L5">
-        <v>9090964257.588022</v>
+        <v>1.77935189398842</v>
       </c>
       <c r="M5">
-        <v>13743.12663301826</v>
+        <v>3.399730879251008</v>
       </c>
       <c r="N5">
-        <v>1.117296359534714E-06</v>
+        <v>0.9597824000225575</v>
       </c>
       <c r="O5">
-        <v>1.49272827290549E-06</v>
+        <v>0.6550793552707591</v>
       </c>
       <c r="P5">
-        <v>1.901238049830277E-06</v>
+        <v>0.89565703670291</v>
       </c>
       <c r="Q5">
-        <v>-119.2813506200366</v>
+        <v>19.74825522555095</v>
       </c>
       <c r="R5">
-        <v>-31.65444854142759</v>
+        <v>-96.09329345651989</v>
       </c>
       <c r="S5">
-        <v>112.3895518109924</v>
+        <v>158.581108761604</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -9361,22 +9361,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.117253837549666E-06</v>
+        <v>0.9714052356153338</v>
       </c>
       <c r="O6">
-        <v>1.492765899485333E-06</v>
+        <v>0.6898212699572401</v>
       </c>
       <c r="P6">
-        <v>1.901253847505873E-06</v>
+        <v>0.8958889607374945</v>
       </c>
       <c r="Q6">
-        <v>-119.2813453754281</v>
+        <v>20.57120340899195</v>
       </c>
       <c r="R6">
-        <v>-31.6552088353213</v>
+        <v>-96.83401769910354</v>
       </c>
       <c r="S6">
-        <v>112.3907415375199</v>
+        <v>157.4477623563691</v>
       </c>
     </row>
   </sheetData>
@@ -10247,22 +10247,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.078847846925941</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.961862725519719</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.05530912685228</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>26.46268431694227</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.57079613676154</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>152.8993938557652</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10306,22 +10306,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526302265102183</v>
+        <v>1.058332742123209</v>
       </c>
       <c r="O3">
-        <v>5.603153463593963E-06</v>
+        <v>0.419993465162101</v>
       </c>
       <c r="P3">
-        <v>0.9526265841990182</v>
+        <v>0.8849458407133998</v>
       </c>
       <c r="Q3">
-        <v>-0.0001370825808954925</v>
+        <v>10.36827052971086</v>
       </c>
       <c r="R3">
-        <v>130.5451109655242</v>
+        <v>-114.9022326535646</v>
       </c>
       <c r="S3">
-        <v>-179.9998809971811</v>
+        <v>167.570584904511</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10365,22 +10365,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526302265191421</v>
+        <v>0.9909306888778323</v>
       </c>
       <c r="O4">
-        <v>5.603177018367698E-06</v>
+        <v>0.1679973860669854</v>
       </c>
       <c r="P4">
-        <v>0.9526265841900944</v>
+        <v>0.9204173017492226</v>
       </c>
       <c r="Q4">
-        <v>-0.0001370830539245049</v>
+        <v>4.409620443403971</v>
       </c>
       <c r="R4">
-        <v>130.5451450908886</v>
+        <v>-114.9022326490691</v>
       </c>
       <c r="S4">
-        <v>-179.9998809967081</v>
+        <v>175.2518098001975</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10391,55 +10391,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.204231799390417</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3.204231799390417</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>36.99928183848033</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>36.99928183848033</v>
       </c>
       <c r="H5">
-        <v>1.135833375155926</v>
+        <v>1.136368270471818</v>
       </c>
       <c r="I5">
-        <v>-582.746438809211</v>
+        <v>-582.7477493791124</v>
       </c>
       <c r="J5">
-        <v>9090849404.822384</v>
+        <v>0.9743985902830108</v>
       </c>
       <c r="K5">
-        <v>-72024.50202926995</v>
+        <v>3.291772033610961</v>
       </c>
       <c r="L5">
-        <v>9090896116.753378</v>
+        <v>0.974398590256586</v>
       </c>
       <c r="M5">
-        <v>-46557.66521245242</v>
+        <v>3.291772033571912</v>
       </c>
       <c r="N5">
-        <v>0.9526302265340152</v>
+        <v>0.9526279648039772</v>
       </c>
       <c r="O5">
-        <v>5.603216276388785E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526265841752214</v>
+        <v>0.9526279648057678</v>
       </c>
       <c r="Q5">
-        <v>-0.0001370838423130766</v>
+        <v>-1.439613901192533E-11</v>
       </c>
       <c r="R5">
-        <v>130.5452019638921</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9998809959197</v>
+        <v>-179.9999999999792</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10483,22 +10483,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526302265221167</v>
+        <v>0.9710601884679121</v>
       </c>
       <c r="O6">
-        <v>5.603184869739314E-06</v>
+        <v>0.08399869303568067</v>
       </c>
       <c r="P6">
-        <v>0.9526265841871201</v>
+        <v>0.9357190172509378</v>
       </c>
       <c r="Q6">
-        <v>-0.0001370832115956227</v>
+        <v>2.248283018886247</v>
       </c>
       <c r="R6">
-        <v>130.5451564649962</v>
+        <v>-114.9022326412667</v>
       </c>
       <c r="S6">
-        <v>-179.9998809965504</v>
+        <v>177.6667554660107</v>
       </c>
     </row>
   </sheetData>
